--- a/data/bank_acc/savings_acc_2.xlsx
+++ b/data/bank_acc/savings_acc_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\bank_acc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3768010-21AE-4E18-B673-A48145E12590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137C99B1-A99E-485B-AAE3-9B82A36DB9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Club Lloyds Saver</t>
   </si>
   <si>
-    <t>interest</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>interest added</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>#interest=1.6</t>
   </si>
 </sst>
 </file>
@@ -352,200 +361,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45292</v>
       </c>
-      <c r="C1">
-        <v>50</v>
-      </c>
-      <c r="D1">
-        <f>(C1*H1/12)/100</f>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <f>(B2*1.6/12)/100</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E1">
-        <f>C1+D1</f>
+      <c r="D2">
+        <f>B2+C2</f>
         <v>50.06666666666667</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45323</v>
       </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <f>((C2+E1)*$H$15/12)/100</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>C2+E1+D2</f>
-        <v>100.06666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <f>((B3+D2)*1.6/12)/100</f>
+        <v>0.13342222222222225</v>
+      </c>
+      <c r="D3">
+        <f>B3+D2+C3</f>
+        <v>100.20008888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45352</v>
       </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">((C3+E2)*$H$15/12)/100</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E11" si="1">C3+E2+D3</f>
-        <v>150.06666666666666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="0">((B4+D3)*1.6/12)/100</f>
+        <v>0.2002667851851852</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D12" si="1">B4+D3+C4</f>
+        <v>150.40035567407409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45383</v>
       </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>200.06666666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.26720047423209881</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>200.6675561483062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45413</v>
       </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>250.06666666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.33422340819774166</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>251.00177955650395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45444</v>
       </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>300.06666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.40133570607533864</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>301.40311526257926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45474</v>
       </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>350.06666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.46853748701677234</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>351.87165274959602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45505</v>
       </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>400.06666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.53582887033279469</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>402.40748161992883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45536</v>
       </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>450.06666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.6032099754932384</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>453.01069159542209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45566</v>
       </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>500.06666666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.67068092212722941</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>503.68137251754933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45597</v>
       </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>550.06666666666661</v>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.73824183002339927</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>554.41961434757275</v>
       </c>
     </row>
   </sheetData>

--- a/data/bank_acc/savings_acc_2.xlsx
+++ b/data/bank_acc/savings_acc_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137C99B1-A99E-485B-AAE3-9B82A36DB9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C80D9-6448-45C6-A4E5-8DF3F5A43158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Club Lloyds Saver</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>balance</t>
-  </si>
-  <si>
-    <t>#interest=1.6</t>
   </si>
 </sst>
 </file>
@@ -361,15 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E1" sqref="E1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -382,11 +379,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -402,7 +396,7 @@
         <v>50.06666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45323</v>
       </c>
@@ -418,7 +412,7 @@
         <v>100.20008888888889</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45352</v>
       </c>
@@ -434,7 +428,7 @@
         <v>150.40035567407409</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45383</v>
       </c>
@@ -450,7 +444,7 @@
         <v>200.6675561483062</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45413</v>
       </c>
@@ -466,7 +460,7 @@
         <v>251.00177955650395</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45444</v>
       </c>
@@ -482,7 +476,7 @@
         <v>301.40311526257926</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45474</v>
       </c>
@@ -498,7 +492,7 @@
         <v>351.87165274959602</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45505</v>
       </c>
@@ -514,7 +508,7 @@
         <v>402.40748161992883</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45536</v>
       </c>
@@ -530,7 +524,7 @@
         <v>453.01069159542209</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45566</v>
       </c>
@@ -546,7 +540,7 @@
         <v>503.68137251754933</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45597</v>
       </c>
